--- a/BalanceSheet/ZM_bal.xlsx
+++ b/BalanceSheet/ZM_bal.xlsx
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-5292000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-2098000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>9115000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1756000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-912000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3202000.0</v>
